--- a/MergeExcel/考勤/1.xlsx
+++ b/MergeExcel/考勤/1.xlsx
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12942" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14810" uniqueCount="427">
   <si>
     <t xml:space="preserve">本月标准工作日天数</t>
   </si>
@@ -1526,18 +1526,49 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
     <t xml:space="preserve">口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">口
+√</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7号迟到210分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">♀
+√</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+7号迟到210分钟
+8号早退74分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">√
+♀</t>
   </si>
   <si>
     <t xml:space="preserve">√
 √</t>
   </si>
   <si>
-    <t xml:space="preserve">口
-√</t>
+    <t xml:space="preserve">
+12号早退97分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12号迟到29分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12号迟到29分钟
+13号迟到131分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2号迟到26分钟</t>
   </si>
   <si>
     <t xml:space="preserve">√
@@ -1545,47 +1576,62 @@
   </si>
   <si>
     <t xml:space="preserve">
-11号迟到15分钟</t>
+12号迟到5分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12号迟到6分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2号迟到26分钟
+2号早退41分钟</t>
   </si>
   <si>
     <t xml:space="preserve">♀
-口</t>
+♀</t>
   </si>
   <si>
     <t xml:space="preserve">
-10号迟到10分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">♀
-√</t>
+13号迟到18分钟</t>
   </si>
   <si>
     <t xml:space="preserve">
-10号迟到23分钟</t>
+12号迟到6分钟
+13号迟到2分钟</t>
   </si>
   <si>
     <t xml:space="preserve">
-10号迟到12分钟</t>
+9号迟到13分钟</t>
   </si>
   <si>
     <t xml:space="preserve">
-10号迟到3分钟</t>
+12号迟到9分钟</t>
   </si>
   <si>
     <t xml:space="preserve">
-10号迟到27分钟</t>
+9号迟到2分钟</t>
   </si>
   <si>
     <t xml:space="preserve">
-10号迟到35分钟</t>
+9号迟到10分钟</t>
   </si>
   <si>
     <t xml:space="preserve">
-10号迟到13分钟</t>
+9号迟到48分钟</t>
   </si>
   <si>
     <t xml:space="preserve">
-10号迟到15分钟</t>
+9号迟到48分钟
+12号迟到48分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+12号迟到15分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9号迟到4分钟</t>
   </si>
 </sst>
 </file>
@@ -3114,24 +3160,14 @@
       <c r="B1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="D1" s="72" t="s">
-        <v>400</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="G1" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>400</v>
-      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="24">
+        <v>23</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
       <c r="I1" s="21" t="s">
         <v>1</v>
       </c>
@@ -3157,58 +3193,58 @@
         <v>1</v>
       </c>
       <c r="Q1" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="R1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="32" t="s">
-        <v>400</v>
-      </c>
       <c r="S1" s="20" t="s">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="T1" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="V1" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="X1" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y1" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="Z1" s="20" t="s">
-        <v>400</v>
-      </c>
       <c r="AA1" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB1" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC1" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AG1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="AF1" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="AG1" s="20" t="s">
-        <v>400</v>
-      </c>
       <c r="AH1" s="21" t="s">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="AI1" s="20" t="s">
         <v>400</v>
@@ -3219,15 +3255,9 @@
       <c r="AK1" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="AL1" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="AM1" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="AN1" s="20" t="s">
-        <v>400</v>
-      </c>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
       <c r="AO1" s="32" t="s">
         <v>2</v>
       </c>
@@ -3237,9 +3267,7 @@
       <c r="AQ1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="32" t="s">
-        <v>400</v>
-      </c>
+      <c r="AR1" s="32"/>
       <c r="AS1" s="32" t="s">
         <v>5</v>
       </c>
@@ -3249,9 +3277,7 @@
       <c r="AU1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AV1" s="32" t="s">
-        <v>400</v>
-      </c>
+      <c r="AV1" s="32"/>
       <c r="AW1" s="42" t="s">
         <v>8</v>
       </c>
@@ -3270,9 +3296,7 @@
       <c r="BB1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="BC1" s="32" t="s">
-        <v>400</v>
-      </c>
+      <c r="BC1" s="32"/>
       <c r="BD1" s="32" t="s">
         <v>5</v>
       </c>
@@ -3282,9 +3306,7 @@
       <c r="BF1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="BG1" s="32" t="s">
-        <v>400</v>
-      </c>
+      <c r="BG1" s="32"/>
       <c r="BH1" s="42" t="s">
         <v>8</v>
       </c>
@@ -3294,21 +3316,11 @@
       <c r="BJ1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="BK1" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="BL1" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="BM1" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="BN1" s="46" t="s">
-        <v>400</v>
-      </c>
-      <c r="BO1" s="47" t="s">
-        <v>400</v>
-      </c>
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43"/>
+      <c r="BM1" s="46"/>
+      <c r="BN1" s="46"/>
+      <c r="BO1" s="47"/>
     </row>
     <row r="2" spans="2:67" s="16" customFormat="1" ht="15.95" customHeight="1">
       <c r="B2" s="73">
@@ -3740,31 +3752,27 @@
         <v>400</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>400</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>402</v>
+        <v>48</v>
       </c>
       <c r="S5" s="15" t="s">
         <v>48</v>
@@ -3924,7 +3932,7 @@
         <v>400</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>400</v>
@@ -3933,31 +3941,31 @@
         <v>400</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N6" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q6" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T6" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U6" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V6" s="15" t="s">
         <v>400</v>
@@ -4091,7 +4099,7 @@
         <v>104</v>
       </c>
       <c r="BO6" s="51" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="15.95" customHeight="1">
@@ -4118,7 +4126,7 @@
         <v>400</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>400</v>
@@ -4127,31 +4135,31 @@
         <v>400</v>
       </c>
       <c r="M7" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N7" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R7" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T7" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U7" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>400</v>
@@ -4312,7 +4320,7 @@
         <v>400</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>400</v>
@@ -4321,31 +4329,31 @@
         <v>400</v>
       </c>
       <c r="M8" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P8" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R8" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="U8" s="35" t="s">
         <v>48</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="U8" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="V8" s="15" t="s">
         <v>400</v>
@@ -4479,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="BO8" s="51" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="2:67" ht="15.95" customHeight="1">
@@ -4506,7 +4514,7 @@
         <v>400</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>400</v>
@@ -4515,31 +4523,31 @@
         <v>400</v>
       </c>
       <c r="M9" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P9" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S9" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T9" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U9" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>400</v>
@@ -4700,7 +4708,7 @@
         <v>400</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>400</v>
@@ -4709,31 +4717,31 @@
         <v>400</v>
       </c>
       <c r="M10" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R10" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T10" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S10" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U10" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>400</v>
@@ -4894,7 +4902,7 @@
         <v>400</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>400</v>
@@ -4903,31 +4911,31 @@
         <v>400</v>
       </c>
       <c r="M11" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R11" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T11" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="S11" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U11" s="35" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="V11" s="15" t="s">
         <v>400</v>
@@ -5061,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="BO11" s="51" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="15.95" customHeight="1">
@@ -5088,7 +5096,7 @@
         <v>400</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>400</v>
@@ -5097,31 +5105,31 @@
         <v>400</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S12" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="T12" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U12" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>400</v>
@@ -5255,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="BO12" s="51" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="15.95" customHeight="1">
@@ -5282,7 +5290,7 @@
         <v>400</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>400</v>
@@ -5291,82 +5299,82 @@
         <v>400</v>
       </c>
       <c r="M13" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P13" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S13" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T13" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U13" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y13" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z13" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA13" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB13" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AD13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF13" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH13" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AJ13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL13" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM13" s="38"/>
       <c r="AN13" s="38"/>
@@ -5476,7 +5484,7 @@
         <v>400</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>400</v>
@@ -5485,31 +5493,31 @@
         <v>400</v>
       </c>
       <c r="M14" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S14" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T14" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V14" s="15" t="s">
         <v>400</v>
@@ -5670,7 +5678,7 @@
         <v>400</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>400</v>
@@ -5679,31 +5687,31 @@
         <v>400</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q15" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R15" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S15" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U15" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V15" s="15" t="s">
         <v>400</v>
@@ -5837,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="BO15" s="51" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="2:67" ht="15.95" customHeight="1">
@@ -5864,7 +5872,7 @@
         <v>400</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>400</v>
@@ -5873,31 +5881,31 @@
         <v>400</v>
       </c>
       <c r="M16" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R16" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S16" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T16" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U16" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>400</v>
@@ -6058,7 +6066,7 @@
         <v>400</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>400</v>
@@ -6067,31 +6075,31 @@
         <v>400</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R17" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S17" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T17" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S17" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T17" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U17" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>400</v>
@@ -6252,7 +6260,7 @@
         <v>400</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>400</v>
@@ -6261,31 +6269,31 @@
         <v>400</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R18" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S18" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T18" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U18" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>400</v>
@@ -6446,7 +6454,7 @@
         <v>400</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>400</v>
@@ -6455,31 +6463,31 @@
         <v>400</v>
       </c>
       <c r="M19" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P19" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="15" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="R19" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S19" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S19" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U19" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V19" s="15" t="s">
         <v>400</v>
@@ -6640,7 +6648,7 @@
         <v>400</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>400</v>
@@ -6649,31 +6657,31 @@
         <v>400</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N20" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q20" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R20" s="15" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="S20" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T20" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U20" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V20" s="15" t="s">
         <v>400</v>
@@ -6807,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="51" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="2:67" ht="15.95" customHeight="1">
@@ -6834,7 +6842,7 @@
         <v>400</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>400</v>
@@ -6843,31 +6851,31 @@
         <v>400</v>
       </c>
       <c r="M21" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N21" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O21" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q21" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R21" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T21" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S21" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U21" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V21" s="15" t="s">
         <v>400</v>
@@ -7028,7 +7036,7 @@
         <v>400</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>400</v>
@@ -7037,31 +7045,31 @@
         <v>400</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O22" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q22" s="15" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="R22" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T22" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V22" s="15" t="s">
         <v>400</v>
@@ -7222,7 +7230,7 @@
         <v>400</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>400</v>
@@ -7231,31 +7239,31 @@
         <v>400</v>
       </c>
       <c r="M23" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N23" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q23" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R23" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S23" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T23" s="35" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="U23" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V23" s="15" t="s">
         <v>400</v>
@@ -7389,7 +7397,7 @@
         <v>-8</v>
       </c>
       <c r="BO23" s="51" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="2:67" ht="15.95" customHeight="1">
@@ -7416,7 +7424,7 @@
         <v>400</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>400</v>
@@ -7425,31 +7433,31 @@
         <v>400</v>
       </c>
       <c r="M24" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N24" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O24" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R24" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T24" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S24" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T24" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U24" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V24" s="15" t="s">
         <v>400</v>
@@ -7610,7 +7618,7 @@
         <v>400</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>400</v>
@@ -7619,31 +7627,31 @@
         <v>400</v>
       </c>
       <c r="M25" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N25" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O25" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R25" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S25" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T25" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S25" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T25" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U25" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V25" s="15" t="s">
         <v>400</v>
@@ -7804,7 +7812,7 @@
         <v>400</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K26" s="36" t="s">
         <v>400</v>
@@ -7813,31 +7821,31 @@
         <v>400</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N26" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O26" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P26" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R26" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S26" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T26" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U26" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V26" s="15" t="s">
         <v>400</v>
@@ -7998,7 +8006,7 @@
         <v>400</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>400</v>
@@ -8007,31 +8015,31 @@
         <v>400</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N27" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S27" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T27" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U27" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V27" s="15" t="s">
         <v>400</v>
@@ -8192,7 +8200,7 @@
         <v>400</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>400</v>
@@ -8201,31 +8209,31 @@
         <v>400</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N28" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R28" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S28" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T28" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S28" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T28" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U28" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V28" s="15" t="s">
         <v>400</v>
@@ -8386,7 +8394,7 @@
         <v>400</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>400</v>
@@ -8395,31 +8403,31 @@
         <v>400</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N29" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R29" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S29" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T29" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S29" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T29" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U29" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V29" s="15" t="s">
         <v>400</v>
@@ -8580,7 +8588,7 @@
         <v>400</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>400</v>
@@ -8589,31 +8597,31 @@
         <v>400</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N30" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R30" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T30" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="U30" s="35" t="s">
         <v>48</v>
-      </c>
-      <c r="S30" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T30" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="U30" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="V30" s="15" t="s">
         <v>400</v>
@@ -8747,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="BO30" s="54" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="2:67" ht="15.95" customHeight="1">
@@ -8774,7 +8782,7 @@
         <v>400</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>400</v>
@@ -8783,31 +8791,31 @@
         <v>400</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N31" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O31" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R31" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S31" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T31" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S31" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T31" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U31" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V31" s="15" t="s">
         <v>400</v>
@@ -8968,7 +8976,7 @@
         <v>400</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>400</v>
@@ -8977,31 +8985,31 @@
         <v>400</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N32" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O32" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q32" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R32" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S32" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T32" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U32" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V32" s="15" t="s">
         <v>400</v>
@@ -9162,7 +9170,7 @@
         <v>400</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>400</v>
@@ -9171,31 +9179,31 @@
         <v>400</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N33" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q33" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R33" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S33" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T33" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U33" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V33" s="15" t="s">
         <v>400</v>
@@ -9356,7 +9364,7 @@
         <v>400</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>400</v>
@@ -9365,31 +9373,31 @@
         <v>400</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N34" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R34" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S34" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T34" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S34" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T34" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U34" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V34" s="15" t="s">
         <v>400</v>
@@ -9550,7 +9558,7 @@
         <v>400</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K35" s="36" t="s">
         <v>400</v>
@@ -9559,31 +9567,31 @@
         <v>400</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q35" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R35" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S35" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T35" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T35" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U35" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V35" s="36" t="s">
         <v>400</v>
@@ -9744,7 +9752,7 @@
         <v>400</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>400</v>
@@ -9753,31 +9761,31 @@
         <v>400</v>
       </c>
       <c r="M36" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N36" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q36" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R36" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S36" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T36" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S36" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T36" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U36" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V36" s="15" t="s">
         <v>400</v>
@@ -9938,7 +9946,7 @@
         <v>400</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>400</v>
@@ -9947,31 +9955,31 @@
         <v>400</v>
       </c>
       <c r="M37" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R37" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S37" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T37" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S37" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T37" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U37" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V37" s="15" t="s">
         <v>400</v>
@@ -10132,7 +10140,7 @@
         <v>400</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>400</v>
@@ -10141,31 +10149,31 @@
         <v>400</v>
       </c>
       <c r="M38" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q38" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R38" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S38" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T38" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S38" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T38" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U38" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V38" s="15" t="s">
         <v>400</v>
@@ -10326,7 +10334,7 @@
         <v>400</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K39" s="36" t="s">
         <v>400</v>
@@ -10335,31 +10343,31 @@
         <v>400</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R39" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T39" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S39" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T39" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U39" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V39" s="15" t="s">
         <v>400</v>
@@ -10520,7 +10528,7 @@
         <v>400</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>400</v>
@@ -10529,82 +10537,82 @@
         <v>400</v>
       </c>
       <c r="M40" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N40" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q40" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R40" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S40" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T40" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U40" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y40" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z40" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA40" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB40" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AD40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF40" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH40" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AJ40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL40" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM40" s="38"/>
       <c r="AN40" s="38"/>
@@ -10714,7 +10722,7 @@
         <v>400</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K41" s="36" t="s">
         <v>400</v>
@@ -10723,31 +10731,31 @@
         <v>400</v>
       </c>
       <c r="M41" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N41" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="Q41" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R41" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S41" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T41" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U41" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V41" s="15" t="s">
         <v>400</v>
@@ -10881,7 +10889,7 @@
         <v>104</v>
       </c>
       <c r="BO41" s="51" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="2:67" ht="15.95" customHeight="1">
@@ -10908,7 +10916,7 @@
         <v>400</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K42" s="15" t="s">
         <v>400</v>
@@ -10917,31 +10925,31 @@
         <v>400</v>
       </c>
       <c r="M42" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N42" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q42" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R42" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S42" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T42" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S42" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T42" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U42" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V42" s="15" t="s">
         <v>400</v>
@@ -11102,7 +11110,7 @@
         <v>400</v>
       </c>
       <c r="J43" s="15" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>400</v>
@@ -11111,31 +11119,31 @@
         <v>400</v>
       </c>
       <c r="M43" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N43" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O43" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q43" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R43" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S43" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T43" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S43" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T43" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U43" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V43" s="15" t="s">
         <v>400</v>
@@ -11269,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="BO43" s="51" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="2:67" ht="15.95" customHeight="1">
@@ -11296,7 +11304,7 @@
         <v>400</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>400</v>
@@ -11305,31 +11313,31 @@
         <v>400</v>
       </c>
       <c r="M44" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N44" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O44" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q44" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R44" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S44" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T44" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S44" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T44" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U44" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V44" s="36" t="s">
         <v>400</v>
@@ -11490,7 +11498,7 @@
         <v>400</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K45" s="15" t="s">
         <v>400</v>
@@ -11499,31 +11507,31 @@
         <v>400</v>
       </c>
       <c r="M45" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N45" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P45" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q45" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R45" s="15" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="S45" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T45" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U45" s="35" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="V45" s="15" t="s">
         <v>400</v>
@@ -11657,7 +11665,7 @@
         <v>-40</v>
       </c>
       <c r="BO45" s="51" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="2:67" ht="15.95" customHeight="1">
@@ -11684,7 +11692,7 @@
         <v>400</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>400</v>
@@ -11693,31 +11701,31 @@
         <v>400</v>
       </c>
       <c r="M46" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N46" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P46" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q46" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R46" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S46" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T46" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S46" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T46" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U46" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V46" s="15" t="s">
         <v>400</v>
@@ -11878,7 +11886,7 @@
         <v>400</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>400</v>
@@ -11887,31 +11895,31 @@
         <v>400</v>
       </c>
       <c r="M47" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N47" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P47" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q47" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R47" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S47" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T47" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S47" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T47" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U47" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V47" s="15" t="s">
         <v>400</v>
@@ -12072,7 +12080,7 @@
         <v>400</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K48" s="36" t="s">
         <v>400</v>
@@ -12081,31 +12089,31 @@
         <v>400</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N48" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O48" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P48" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q48" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R48" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S48" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T48" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="S48" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T48" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U48" s="37" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="V48" s="36" t="s">
         <v>400</v>
@@ -12239,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="BO48" s="51" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="2:67" ht="15.95" customHeight="1">
@@ -12266,7 +12274,7 @@
         <v>400</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>400</v>
@@ -12275,31 +12283,31 @@
         <v>400</v>
       </c>
       <c r="M49" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N49" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P49" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q49" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R49" s="15" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="S49" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T49" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="U49" s="35" t="s">
         <v>402</v>
-      </c>
-      <c r="T49" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="U49" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="V49" s="15" t="s">
         <v>400</v>
@@ -12433,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="BO49" s="51" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="2:67" ht="15.95" customHeight="1">
@@ -12460,7 +12468,7 @@
         <v>400</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>400</v>
@@ -12469,82 +12477,82 @@
         <v>400</v>
       </c>
       <c r="M50" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N50" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O50" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q50" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R50" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S50" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T50" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U50" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y50" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z50" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA50" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB50" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AD50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF50" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH50" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AJ50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL50" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM50" s="38"/>
       <c r="AN50" s="38"/>
@@ -12654,7 +12662,7 @@
         <v>400</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K51" s="15" t="s">
         <v>400</v>
@@ -12663,31 +12671,31 @@
         <v>400</v>
       </c>
       <c r="M51" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N51" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O51" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q51" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R51" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S51" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T51" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S51" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T51" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U51" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V51" s="15" t="s">
         <v>400</v>
@@ -12848,7 +12856,7 @@
         <v>400</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K52" s="15" t="s">
         <v>400</v>
@@ -12857,31 +12865,31 @@
         <v>400</v>
       </c>
       <c r="M52" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N52" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q52" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R52" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S52" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T52" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S52" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T52" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U52" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V52" s="15" t="s">
         <v>400</v>
@@ -13042,7 +13050,7 @@
         <v>400</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K53" s="15" t="s">
         <v>400</v>
@@ -13051,31 +13059,31 @@
         <v>400</v>
       </c>
       <c r="M53" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N53" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P53" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q53" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R53" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S53" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T53" s="35" t="s">
+        <v>402</v>
+      </c>
+      <c r="U53" s="35" t="s">
         <v>48</v>
-      </c>
-      <c r="S53" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T53" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="U53" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="V53" s="15" t="s">
         <v>400</v>
@@ -13236,7 +13244,7 @@
         <v>400</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>400</v>
@@ -13245,31 +13253,31 @@
         <v>400</v>
       </c>
       <c r="M54" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N54" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P54" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q54" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R54" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S54" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T54" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U54" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V54" s="15" t="s">
         <v>400</v>
@@ -13430,7 +13438,7 @@
         <v>400</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>400</v>
@@ -13439,31 +13447,31 @@
         <v>400</v>
       </c>
       <c r="M55" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N55" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q55" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R55" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S55" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T55" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S55" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T55" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U55" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V55" s="15" t="s">
         <v>400</v>
@@ -13624,7 +13632,7 @@
         <v>400</v>
       </c>
       <c r="J56" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>400</v>
@@ -13633,31 +13641,31 @@
         <v>400</v>
       </c>
       <c r="M56" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N56" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q56" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R56" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S56" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T56" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S56" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T56" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U56" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V56" s="15" t="s">
         <v>400</v>
@@ -13791,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="BO56" s="51" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="2:67" ht="15.95" customHeight="1">
@@ -13818,7 +13826,7 @@
         <v>400</v>
       </c>
       <c r="J57" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>400</v>
@@ -13827,31 +13835,31 @@
         <v>400</v>
       </c>
       <c r="M57" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N57" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q57" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R57" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S57" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T57" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S57" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T57" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U57" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V57" s="15" t="s">
         <v>400</v>
@@ -14012,7 +14020,7 @@
         <v>400</v>
       </c>
       <c r="J58" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K58" s="15" t="s">
         <v>400</v>
@@ -14021,31 +14029,31 @@
         <v>400</v>
       </c>
       <c r="M58" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N58" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q58" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R58" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S58" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T58" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S58" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T58" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U58" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V58" s="15" t="s">
         <v>400</v>
@@ -14206,7 +14214,7 @@
         <v>400</v>
       </c>
       <c r="J59" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K59" s="15" t="s">
         <v>400</v>
@@ -14215,31 +14223,31 @@
         <v>400</v>
       </c>
       <c r="M59" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N59" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O59" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q59" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R59" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S59" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S59" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T59" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U59" s="35" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="V59" s="15" t="s">
         <v>400</v>
@@ -14400,7 +14408,7 @@
         <v>400</v>
       </c>
       <c r="J60" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K60" s="15" t="s">
         <v>400</v>
@@ -14409,31 +14417,31 @@
         <v>400</v>
       </c>
       <c r="M60" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N60" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O60" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P60" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q60" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R60" s="15" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="S60" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T60" s="35" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="U60" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V60" s="15" t="s">
         <v>400</v>
@@ -14567,7 +14575,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="51" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="2:67" ht="15.95" customHeight="1">
@@ -14594,7 +14602,7 @@
         <v>400</v>
       </c>
       <c r="J61" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K61" s="15" t="s">
         <v>400</v>
@@ -14603,31 +14611,31 @@
         <v>400</v>
       </c>
       <c r="M61" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N61" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O61" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P61" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q61" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R61" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S61" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T61" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S61" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T61" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U61" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V61" s="15" t="s">
         <v>400</v>
@@ -14788,7 +14796,7 @@
         <v>400</v>
       </c>
       <c r="J62" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K62" s="15" t="s">
         <v>400</v>
@@ -14797,31 +14805,31 @@
         <v>400</v>
       </c>
       <c r="M62" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N62" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O62" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P62" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q62" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R62" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S62" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T62" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S62" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T62" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U62" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V62" s="15" t="s">
         <v>400</v>
@@ -14982,7 +14990,7 @@
         <v>400</v>
       </c>
       <c r="J63" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K63" s="15" t="s">
         <v>400</v>
@@ -14991,31 +14999,31 @@
         <v>400</v>
       </c>
       <c r="M63" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N63" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O63" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P63" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q63" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R63" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S63" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T63" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U63" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V63" s="15" t="s">
         <v>400</v>
@@ -15176,7 +15184,7 @@
         <v>400</v>
       </c>
       <c r="J64" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K64" s="15" t="s">
         <v>400</v>
@@ -15185,31 +15193,31 @@
         <v>400</v>
       </c>
       <c r="M64" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N64" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O64" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P64" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q64" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R64" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S64" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T64" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U64" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V64" s="15" t="s">
         <v>400</v>
@@ -15370,7 +15378,7 @@
         <v>400</v>
       </c>
       <c r="J65" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K65" s="15" t="s">
         <v>400</v>
@@ -15379,31 +15387,31 @@
         <v>400</v>
       </c>
       <c r="M65" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N65" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O65" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P65" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q65" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R65" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S65" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T65" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U65" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V65" s="15" t="s">
         <v>400</v>
@@ -15564,7 +15572,7 @@
         <v>400</v>
       </c>
       <c r="J66" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K66" s="15" t="s">
         <v>400</v>
@@ -15573,31 +15581,31 @@
         <v>400</v>
       </c>
       <c r="M66" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N66" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P66" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q66" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R66" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S66" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T66" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S66" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T66" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U66" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V66" s="15" t="s">
         <v>400</v>
@@ -15758,7 +15766,7 @@
         <v>400</v>
       </c>
       <c r="J67" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>400</v>
@@ -15767,31 +15775,31 @@
         <v>400</v>
       </c>
       <c r="M67" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N67" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O67" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q67" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R67" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S67" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T67" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S67" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T67" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U67" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V67" s="15" t="s">
         <v>400</v>
@@ -15952,7 +15960,7 @@
         <v>400</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>400</v>
@@ -15961,31 +15969,31 @@
         <v>400</v>
       </c>
       <c r="M68" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N68" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O68" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P68" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q68" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R68" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S68" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T68" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S68" s="15" t="s">
+      <c r="U68" s="35" t="s">
         <v>402</v>
-      </c>
-      <c r="T68" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="U68" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="V68" s="15" t="s">
         <v>400</v>
@@ -16119,7 +16127,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="51" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="2:67" ht="15.95" customHeight="1">
@@ -16146,7 +16154,7 @@
         <v>400</v>
       </c>
       <c r="J69" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>400</v>
@@ -16155,31 +16163,31 @@
         <v>400</v>
       </c>
       <c r="M69" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N69" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O69" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q69" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R69" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S69" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T69" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S69" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T69" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U69" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V69" s="15" t="s">
         <v>400</v>
@@ -16340,7 +16348,7 @@
         <v>400</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K70" s="15" t="s">
         <v>400</v>
@@ -16349,31 +16357,31 @@
         <v>400</v>
       </c>
       <c r="M70" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N70" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O70" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P70" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q70" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R70" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S70" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T70" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S70" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T70" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U70" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V70" s="15" t="s">
         <v>400</v>
@@ -16534,7 +16542,7 @@
         <v>400</v>
       </c>
       <c r="J71" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K71" s="15" t="s">
         <v>400</v>
@@ -16543,31 +16551,31 @@
         <v>400</v>
       </c>
       <c r="M71" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N71" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O71" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P71" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q71" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R71" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S71" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T71" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S71" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T71" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U71" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V71" s="15" t="s">
         <v>400</v>
@@ -16728,7 +16736,7 @@
         <v>400</v>
       </c>
       <c r="J72" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K72" s="15" t="s">
         <v>400</v>
@@ -16737,31 +16745,31 @@
         <v>400</v>
       </c>
       <c r="M72" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N72" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O72" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P72" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q72" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R72" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S72" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T72" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S72" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T72" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U72" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V72" s="15" t="s">
         <v>400</v>
@@ -16922,7 +16930,7 @@
         <v>400</v>
       </c>
       <c r="J73" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K73" s="15" t="s">
         <v>400</v>
@@ -16931,31 +16939,31 @@
         <v>400</v>
       </c>
       <c r="M73" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N73" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O73" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P73" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q73" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R73" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S73" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T73" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S73" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T73" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U73" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V73" s="15" t="s">
         <v>400</v>
@@ -17116,7 +17124,7 @@
         <v>400</v>
       </c>
       <c r="J74" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K74" s="15" t="s">
         <v>400</v>
@@ -17125,31 +17133,31 @@
         <v>400</v>
       </c>
       <c r="M74" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N74" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O74" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P74" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q74" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R74" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S74" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T74" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S74" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T74" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U74" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V74" s="15" t="s">
         <v>400</v>
@@ -17310,7 +17318,7 @@
         <v>400</v>
       </c>
       <c r="J75" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>400</v>
@@ -17319,31 +17327,31 @@
         <v>400</v>
       </c>
       <c r="M75" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N75" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O75" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P75" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q75" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R75" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S75" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T75" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S75" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T75" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U75" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V75" s="15" t="s">
         <v>400</v>
@@ -17504,7 +17512,7 @@
         <v>400</v>
       </c>
       <c r="J76" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K76" s="15" t="s">
         <v>400</v>
@@ -17513,31 +17521,31 @@
         <v>400</v>
       </c>
       <c r="M76" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N76" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O76" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P76" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q76" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R76" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S76" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T76" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S76" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T76" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U76" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V76" s="15" t="s">
         <v>400</v>
@@ -17698,7 +17706,7 @@
         <v>400</v>
       </c>
       <c r="J77" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K77" s="15" t="s">
         <v>400</v>
@@ -17707,31 +17715,31 @@
         <v>400</v>
       </c>
       <c r="M77" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N77" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O77" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P77" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q77" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R77" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S77" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T77" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S77" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T77" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U77" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V77" s="15" t="s">
         <v>400</v>
@@ -17892,7 +17900,7 @@
         <v>400</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K78" s="15" t="s">
         <v>400</v>
@@ -17901,31 +17909,31 @@
         <v>400</v>
       </c>
       <c r="M78" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N78" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O78" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P78" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q78" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R78" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S78" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T78" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S78" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T78" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U78" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V78" s="15" t="s">
         <v>400</v>
@@ -18086,7 +18094,7 @@
         <v>400</v>
       </c>
       <c r="J79" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K79" s="15" t="s">
         <v>400</v>
@@ -18095,31 +18103,31 @@
         <v>400</v>
       </c>
       <c r="M79" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N79" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O79" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P79" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q79" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R79" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S79" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T79" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S79" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T79" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U79" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V79" s="15" t="s">
         <v>400</v>
@@ -18280,7 +18288,7 @@
         <v>400</v>
       </c>
       <c r="J80" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K80" s="15" t="s">
         <v>400</v>
@@ -18289,31 +18297,31 @@
         <v>400</v>
       </c>
       <c r="M80" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N80" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O80" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P80" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q80" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R80" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S80" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T80" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S80" s="15" t="s">
+      <c r="U80" s="35" t="s">
         <v>402</v>
-      </c>
-      <c r="T80" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="U80" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="V80" s="15" t="s">
         <v>400</v>
@@ -18447,7 +18455,7 @@
         <v>0</v>
       </c>
       <c r="BO80" s="51" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="2:67" ht="15.95" customHeight="1">
@@ -18474,7 +18482,7 @@
         <v>400</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>400</v>
@@ -18483,31 +18491,31 @@
         <v>400</v>
       </c>
       <c r="M81" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N81" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O81" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P81" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q81" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R81" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S81" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T81" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S81" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T81" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U81" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V81" s="36" t="s">
         <v>400</v>
@@ -18668,7 +18676,7 @@
         <v>400</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K82" s="15" t="s">
         <v>400</v>
@@ -18677,31 +18685,31 @@
         <v>400</v>
       </c>
       <c r="M82" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N82" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O82" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P82" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q82" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R82" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S82" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T82" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S82" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T82" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U82" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V82" s="15" t="s">
         <v>400</v>
@@ -18862,7 +18870,7 @@
         <v>400</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K83" s="15" t="s">
         <v>400</v>
@@ -18871,31 +18879,31 @@
         <v>400</v>
       </c>
       <c r="M83" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N83" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O83" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P83" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q83" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R83" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S83" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T83" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S83" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T83" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U83" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V83" s="15" t="s">
         <v>400</v>
@@ -19056,7 +19064,7 @@
         <v>400</v>
       </c>
       <c r="J84" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K84" s="15" t="s">
         <v>400</v>
@@ -19065,31 +19073,31 @@
         <v>400</v>
       </c>
       <c r="M84" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N84" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O84" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P84" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q84" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R84" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S84" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T84" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="U84" s="35" t="s">
         <v>48</v>
-      </c>
-      <c r="S84" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T84" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="U84" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="V84" s="15" t="s">
         <v>400</v>
@@ -19223,7 +19231,7 @@
         <v>0</v>
       </c>
       <c r="BO84" s="51" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" spans="2:67" ht="15.95" customHeight="1">
@@ -19250,7 +19258,7 @@
         <v>400</v>
       </c>
       <c r="J85" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K85" s="15" t="s">
         <v>400</v>
@@ -19259,31 +19267,31 @@
         <v>400</v>
       </c>
       <c r="M85" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N85" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O85" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P85" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q85" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R85" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S85" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T85" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S85" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T85" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U85" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V85" s="15" t="s">
         <v>400</v>
@@ -19444,7 +19452,7 @@
         <v>400</v>
       </c>
       <c r="J86" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K86" s="15" t="s">
         <v>400</v>
@@ -19453,31 +19461,31 @@
         <v>400</v>
       </c>
       <c r="M86" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N86" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O86" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P86" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q86" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R86" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S86" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T86" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S86" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T86" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U86" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V86" s="15" t="s">
         <v>400</v>
@@ -19638,7 +19646,7 @@
         <v>400</v>
       </c>
       <c r="J87" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K87" s="15" t="s">
         <v>400</v>
@@ -19647,31 +19655,31 @@
         <v>400</v>
       </c>
       <c r="M87" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N87" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O87" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P87" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q87" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R87" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S87" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T87" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S87" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T87" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U87" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V87" s="15" t="s">
         <v>400</v>
@@ -19832,7 +19840,7 @@
         <v>400</v>
       </c>
       <c r="J88" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K88" s="15" t="s">
         <v>400</v>
@@ -19841,31 +19849,31 @@
         <v>400</v>
       </c>
       <c r="M88" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N88" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O88" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P88" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q88" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R88" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S88" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T88" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S88" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T88" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U88" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V88" s="15" t="s">
         <v>400</v>
@@ -20026,7 +20034,7 @@
         <v>400</v>
       </c>
       <c r="J89" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K89" s="15" t="s">
         <v>400</v>
@@ -20035,31 +20043,31 @@
         <v>400</v>
       </c>
       <c r="M89" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N89" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O89" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P89" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q89" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R89" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S89" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T89" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S89" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T89" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U89" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V89" s="15" t="s">
         <v>400</v>
@@ -20220,7 +20228,7 @@
         <v>400</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K90" s="15" t="s">
         <v>400</v>
@@ -20229,31 +20237,31 @@
         <v>400</v>
       </c>
       <c r="M90" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N90" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O90" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P90" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q90" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R90" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S90" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T90" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S90" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T90" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U90" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V90" s="15" t="s">
         <v>400</v>
@@ -20414,7 +20422,7 @@
         <v>400</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K91" s="15" t="s">
         <v>400</v>
@@ -20423,31 +20431,31 @@
         <v>400</v>
       </c>
       <c r="M91" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N91" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O91" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P91" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q91" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R91" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S91" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T91" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U91" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V91" s="15" t="s">
         <v>400</v>
@@ -20608,7 +20616,7 @@
         <v>400</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K92" s="15" t="s">
         <v>400</v>
@@ -20617,31 +20625,31 @@
         <v>400</v>
       </c>
       <c r="M92" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N92" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O92" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P92" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q92" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R92" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S92" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T92" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S92" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T92" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U92" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V92" s="15" t="s">
         <v>400</v>
@@ -20802,7 +20810,7 @@
         <v>400</v>
       </c>
       <c r="J93" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K93" s="15" t="s">
         <v>400</v>
@@ -20811,31 +20819,31 @@
         <v>400</v>
       </c>
       <c r="M93" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N93" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O93" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P93" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q93" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R93" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S93" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T93" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="U93" s="35" t="s">
         <v>48</v>
-      </c>
-      <c r="S93" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T93" s="35" t="s">
-        <v>400</v>
-      </c>
-      <c r="U93" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="V93" s="15" t="s">
         <v>400</v>
@@ -20996,7 +21004,7 @@
         <v>400</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K94" s="15" t="s">
         <v>400</v>
@@ -21005,31 +21013,31 @@
         <v>400</v>
       </c>
       <c r="M94" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N94" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O94" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P94" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q94" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R94" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S94" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T94" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S94" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T94" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U94" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V94" s="15" t="s">
         <v>400</v>
@@ -21190,7 +21198,7 @@
         <v>400</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K95" s="15" t="s">
         <v>400</v>
@@ -21199,31 +21207,31 @@
         <v>400</v>
       </c>
       <c r="M95" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N95" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O95" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P95" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q95" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R95" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S95" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T95" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S95" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T95" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U95" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V95" s="15" t="s">
         <v>400</v>
@@ -21380,7 +21388,7 @@
         <v>400</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K96" s="15" t="s">
         <v>400</v>
@@ -21389,31 +21397,31 @@
         <v>400</v>
       </c>
       <c r="M96" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N96" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O96" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P96" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q96" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R96" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S96" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T96" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S96" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T96" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U96" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V96" s="15" t="s">
         <v>400</v>
@@ -21574,7 +21582,7 @@
         <v>400</v>
       </c>
       <c r="J97" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K97" s="15" t="s">
         <v>400</v>
@@ -21583,31 +21591,31 @@
         <v>400</v>
       </c>
       <c r="M97" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N97" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O97" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P97" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q97" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R97" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S97" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T97" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S97" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T97" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U97" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V97" s="15" t="s">
         <v>400</v>
@@ -21768,7 +21776,7 @@
         <v>400</v>
       </c>
       <c r="J98" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K98" s="15" t="s">
         <v>400</v>
@@ -21777,31 +21785,31 @@
         <v>400</v>
       </c>
       <c r="M98" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N98" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O98" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P98" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q98" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R98" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S98" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T98" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S98" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T98" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U98" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V98" s="15" t="s">
         <v>400</v>
@@ -21962,7 +21970,7 @@
         <v>400</v>
       </c>
       <c r="J99" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K99" s="15" t="s">
         <v>400</v>
@@ -21971,31 +21979,31 @@
         <v>400</v>
       </c>
       <c r="M99" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N99" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O99" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P99" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q99" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R99" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S99" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T99" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S99" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T99" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U99" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V99" s="15" t="s">
         <v>400</v>
@@ -22156,7 +22164,7 @@
         <v>400</v>
       </c>
       <c r="J100" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K100" s="15" t="s">
         <v>400</v>
@@ -22165,31 +22173,31 @@
         <v>400</v>
       </c>
       <c r="M100" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N100" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O100" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P100" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q100" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R100" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S100" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T100" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S100" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T100" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U100" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V100" s="15" t="s">
         <v>400</v>
@@ -22350,7 +22358,7 @@
         <v>400</v>
       </c>
       <c r="J101" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K101" s="15" t="s">
         <v>400</v>
@@ -22359,31 +22367,31 @@
         <v>400</v>
       </c>
       <c r="M101" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N101" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O101" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P101" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q101" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R101" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S101" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T101" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U101" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V101" s="15" t="s">
         <v>400</v>
@@ -22544,7 +22552,7 @@
         <v>400</v>
       </c>
       <c r="J102" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K102" s="15" t="s">
         <v>400</v>
@@ -22553,31 +22561,31 @@
         <v>400</v>
       </c>
       <c r="M102" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N102" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O102" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P102" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q102" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R102" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S102" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T102" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S102" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T102" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U102" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V102" s="15" t="s">
         <v>400</v>
@@ -22738,7 +22746,7 @@
         <v>400</v>
       </c>
       <c r="J103" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K103" s="15" t="s">
         <v>400</v>
@@ -22747,31 +22755,31 @@
         <v>400</v>
       </c>
       <c r="M103" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N103" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O103" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P103" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q103" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R103" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S103" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T103" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S103" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T103" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U103" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V103" s="15" t="s">
         <v>400</v>
@@ -22932,7 +22940,7 @@
         <v>400</v>
       </c>
       <c r="J104" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K104" s="15" t="s">
         <v>400</v>
@@ -22941,82 +22949,82 @@
         <v>400</v>
       </c>
       <c r="M104" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N104" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O104" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P104" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q104" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R104" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S104" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T104" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U104" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y104" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z104" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA104" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB104" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AD104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF104" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH104" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AJ104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL104" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM104" s="38"/>
       <c r="AN104" s="38"/>
@@ -23126,7 +23134,7 @@
         <v>400</v>
       </c>
       <c r="J105" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K105" s="15" t="s">
         <v>400</v>
@@ -23135,82 +23143,82 @@
         <v>400</v>
       </c>
       <c r="M105" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N105" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O105" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P105" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q105" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R105" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S105" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T105" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U105" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y105" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z105" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA105" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB105" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AD105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF105" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH105" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AJ105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL105" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM105" s="38"/>
       <c r="AN105" s="38"/>
@@ -23320,7 +23328,7 @@
         <v>400</v>
       </c>
       <c r="J106" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K106" s="15" t="s">
         <v>400</v>
@@ -23329,82 +23337,82 @@
         <v>400</v>
       </c>
       <c r="M106" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N106" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O106" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P106" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q106" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R106" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S106" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T106" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U106" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y106" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z106" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA106" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB106" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AD106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF106" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH106" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AJ106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL106" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM106" s="38"/>
       <c r="AN106" s="38"/>
@@ -23514,7 +23522,7 @@
         <v>400</v>
       </c>
       <c r="J107" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K107" s="15" t="s">
         <v>400</v>
@@ -23523,31 +23531,31 @@
         <v>400</v>
       </c>
       <c r="M107" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N107" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O107" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P107" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q107" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R107" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S107" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T107" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S107" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T107" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U107" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V107" s="15" t="s">
         <v>400</v>
@@ -23708,7 +23716,7 @@
         <v>400</v>
       </c>
       <c r="J108" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K108" s="15" t="s">
         <v>400</v>
@@ -23717,31 +23725,31 @@
         <v>400</v>
       </c>
       <c r="M108" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N108" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O108" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P108" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q108" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R108" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S108" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T108" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S108" s="36" t="s">
+      <c r="U108" s="37" t="s">
         <v>48</v>
-      </c>
-      <c r="T108" s="37" t="s">
-        <v>400</v>
-      </c>
-      <c r="U108" s="37" t="s">
-        <v>400</v>
       </c>
       <c r="V108" s="36" t="s">
         <v>400</v>
@@ -23902,7 +23910,7 @@
         <v>400</v>
       </c>
       <c r="J109" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K109" s="15" t="s">
         <v>400</v>
@@ -23911,31 +23919,31 @@
         <v>400</v>
       </c>
       <c r="M109" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N109" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O109" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P109" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q109" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R109" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S109" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T109" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U109" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V109" s="15" t="s">
         <v>400</v>
@@ -24096,7 +24104,7 @@
         <v>400</v>
       </c>
       <c r="J110" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K110" s="15" t="s">
         <v>400</v>
@@ -24105,31 +24113,31 @@
         <v>400</v>
       </c>
       <c r="M110" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N110" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O110" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P110" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q110" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R110" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S110" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T110" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S110" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T110" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U110" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V110" s="15" t="s">
         <v>400</v>
@@ -24263,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="BO110" s="51" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="111" spans="2:67" ht="15.95" customHeight="1">
@@ -24290,7 +24298,7 @@
         <v>400</v>
       </c>
       <c r="J111" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K111" s="15" t="s">
         <v>400</v>
@@ -24299,31 +24307,31 @@
         <v>400</v>
       </c>
       <c r="M111" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N111" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O111" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P111" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q111" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R111" s="15" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="S111" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T111" s="35" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="U111" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V111" s="15" t="s">
         <v>400</v>
@@ -24457,7 +24465,7 @@
         <v>-24</v>
       </c>
       <c r="BO111" s="51" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="112" spans="2:67" ht="15.95" customHeight="1">
@@ -24484,7 +24492,7 @@
         <v>400</v>
       </c>
       <c r="J112" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K112" s="15" t="s">
         <v>400</v>
@@ -24493,31 +24501,31 @@
         <v>400</v>
       </c>
       <c r="M112" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N112" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O112" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P112" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q112" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R112" s="15" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S112" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T112" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U112" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V112" s="15" t="s">
         <v>400</v>
@@ -24674,7 +24682,7 @@
         <v>400</v>
       </c>
       <c r="J113" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K113" s="15" t="s">
         <v>400</v>
@@ -24683,31 +24691,31 @@
         <v>400</v>
       </c>
       <c r="M113" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N113" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O113" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P113" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q113" s="15" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R113" s="15" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="S113" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T113" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U113" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V113" s="15" t="s">
         <v>400</v>
@@ -24841,7 +24849,7 @@
         <v>-16</v>
       </c>
       <c r="BO113" s="51" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" spans="2:67" ht="15.95" customHeight="1">
@@ -24864,7 +24872,7 @@
         <v>400</v>
       </c>
       <c r="J114" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K114" s="15" t="s">
         <v>400</v>
@@ -24873,31 +24881,31 @@
         <v>400</v>
       </c>
       <c r="M114" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N114" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O114" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P114" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q114" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R114" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S114" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T114" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S114" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T114" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U114" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V114" s="15" t="s">
         <v>400</v>
@@ -25054,7 +25062,7 @@
         <v>400</v>
       </c>
       <c r="J115" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K115" s="15" t="s">
         <v>400</v>
@@ -25063,31 +25071,31 @@
         <v>400</v>
       </c>
       <c r="M115" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N115" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O115" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P115" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q115" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R115" s="36" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S115" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T115" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U115" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V115" s="36" t="s">
         <v>400</v>
@@ -25244,7 +25252,7 @@
         <v>400</v>
       </c>
       <c r="J116" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K116" s="15" t="s">
         <v>400</v>
@@ -25253,31 +25261,31 @@
         <v>400</v>
       </c>
       <c r="M116" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N116" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O116" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P116" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q116" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R116" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S116" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T116" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S116" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T116" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U116" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V116" s="36" t="s">
         <v>400</v>
@@ -25438,7 +25446,7 @@
         <v>400</v>
       </c>
       <c r="J117" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K117" s="15" t="s">
         <v>400</v>
@@ -25447,31 +25455,31 @@
         <v>400</v>
       </c>
       <c r="M117" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N117" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O117" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P117" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q117" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R117" s="15" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S117" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T117" s="37" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="U117" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V117" s="36" t="s">
         <v>400</v>
@@ -25605,7 +25613,7 @@
         <v>-16</v>
       </c>
       <c r="BO117" s="51" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="2:67" ht="15.95" customHeight="1">
@@ -25632,7 +25640,7 @@
         <v>400</v>
       </c>
       <c r="J118" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K118" s="36" t="s">
         <v>400</v>
@@ -25641,82 +25649,82 @@
         <v>400</v>
       </c>
       <c r="M118" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N118" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O118" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P118" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q118" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R118" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S118" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T118" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U118" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V118" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W118" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="X118" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y118" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Z118" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA118" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB118" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC118" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AD118" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE118" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF118" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AG118" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AH118" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI118" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AJ118" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AK118" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL118" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AM118" s="38"/>
       <c r="AN118" s="38"/>
@@ -25822,7 +25830,7 @@
         <v>400</v>
       </c>
       <c r="J119" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K119" s="15" t="s">
         <v>400</v>
@@ -25831,31 +25839,31 @@
         <v>400</v>
       </c>
       <c r="M119" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N119" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O119" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P119" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q119" s="15" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="R119" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S119" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T119" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S119" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T119" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U119" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V119" s="15" t="s">
         <v>400</v>
@@ -26012,7 +26020,7 @@
         <v>400</v>
       </c>
       <c r="J120" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K120" s="15" t="s">
         <v>400</v>
@@ -26021,31 +26029,31 @@
         <v>400</v>
       </c>
       <c r="M120" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N120" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O120" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P120" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q120" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R120" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S120" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T120" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S120" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T120" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U120" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V120" s="15" t="s">
         <v>400</v>
@@ -26206,7 +26214,7 @@
         <v>400</v>
       </c>
       <c r="J121" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K121" s="15" t="s">
         <v>400</v>
@@ -26215,31 +26223,31 @@
         <v>400</v>
       </c>
       <c r="M121" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N121" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O121" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P121" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q121" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R121" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S121" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T121" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U121" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V121" s="15" t="s">
         <v>400</v>
@@ -26400,7 +26408,7 @@
         <v>400</v>
       </c>
       <c r="J122" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K122" s="15" t="s">
         <v>400</v>
@@ -26409,31 +26417,31 @@
         <v>400</v>
       </c>
       <c r="M122" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N122" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O122" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P122" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q122" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R122" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S122" s="15" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T122" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U122" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V122" s="15" t="s">
         <v>400</v>
@@ -26594,7 +26602,7 @@
         <v>400</v>
       </c>
       <c r="J123" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K123" s="15" t="s">
         <v>400</v>
@@ -26603,31 +26611,31 @@
         <v>400</v>
       </c>
       <c r="M123" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N123" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O123" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P123" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q123" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R123" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S123" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T123" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S123" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T123" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U123" s="35" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V123" s="36" t="s">
         <v>400</v>
@@ -26761,7 +26769,7 @@
         <v>-16</v>
       </c>
       <c r="BO123" s="51" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
     </row>
     <row r="124" spans="2:67" ht="15.95" customHeight="1">
@@ -26788,7 +26796,7 @@
         <v>400</v>
       </c>
       <c r="J124" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K124" s="15" t="s">
         <v>400</v>
@@ -26797,31 +26805,31 @@
         <v>400</v>
       </c>
       <c r="M124" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N124" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O124" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P124" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q124" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R124" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S124" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T124" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S124" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T124" s="35" t="s">
-        <v>400</v>
-      </c>
       <c r="U124" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V124" s="36" t="s">
         <v>400</v>
@@ -26978,7 +26986,7 @@
         <v>400</v>
       </c>
       <c r="J125" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K125" s="15" t="s">
         <v>400</v>
@@ -26987,31 +26995,31 @@
         <v>400</v>
       </c>
       <c r="M125" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N125" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O125" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P125" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q125" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R125" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="S125" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T125" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S125" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T125" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U125" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V125" s="15" t="s">
         <v>400</v>
@@ -27172,7 +27180,7 @@
         <v>400</v>
       </c>
       <c r="J126" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K126" s="15" t="s">
         <v>400</v>
@@ -27181,31 +27189,31 @@
         <v>400</v>
       </c>
       <c r="M126" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N126" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O126" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P126" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q126" s="15" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R126" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S126" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="T126" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S126" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="T126" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U126" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V126" s="36" t="s">
         <v>400</v>
@@ -27366,7 +27374,7 @@
         <v>400</v>
       </c>
       <c r="J127" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K127" s="36" t="s">
         <v>400</v>
@@ -27375,31 +27383,31 @@
         <v>400</v>
       </c>
       <c r="M127" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N127" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O127" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P127" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q127" s="36" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R127" s="36" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="S127" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T127" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U127" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V127" s="36" t="s">
         <v>400</v>
@@ -27533,7 +27541,7 @@
         <v>-40</v>
       </c>
       <c r="BO127" s="51" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="2:67" ht="15.95" customHeight="1">
@@ -27560,7 +27568,7 @@
         <v>400</v>
       </c>
       <c r="J128" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K128" s="36" t="s">
         <v>400</v>
@@ -27569,31 +27577,31 @@
         <v>400</v>
       </c>
       <c r="M128" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N128" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O128" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P128" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q128" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R128" s="36" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="S128" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T128" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U128" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V128" s="36" t="s">
         <v>400</v>
@@ -27754,7 +27762,7 @@
         <v>400</v>
       </c>
       <c r="J129" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K129" s="36" t="s">
         <v>400</v>
@@ -27763,31 +27771,31 @@
         <v>400</v>
       </c>
       <c r="M129" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N129" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O129" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P129" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q129" s="36" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="R129" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S129" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T129" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S129" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T129" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U129" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V129" s="36" t="s">
         <v>400</v>
@@ -27921,7 +27929,7 @@
         <v>-40</v>
       </c>
       <c r="BO129" s="51" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
     </row>
     <row r="130" spans="2:67" ht="15.95" customHeight="1">
@@ -27944,7 +27952,7 @@
         <v>400</v>
       </c>
       <c r="J130" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K130" s="36" t="s">
         <v>400</v>
@@ -27953,31 +27961,31 @@
         <v>400</v>
       </c>
       <c r="M130" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N130" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O130" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P130" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q130" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R130" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S130" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T130" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S130" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T130" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U130" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V130" s="36" t="s">
         <v>400</v>
@@ -28138,7 +28146,7 @@
         <v>400</v>
       </c>
       <c r="J131" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K131" s="36" t="s">
         <v>400</v>
@@ -28147,31 +28155,31 @@
         <v>400</v>
       </c>
       <c r="M131" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N131" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O131" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P131" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q131" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R131" s="36" t="s">
-        <v>48</v>
+        <v>400</v>
       </c>
       <c r="S131" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T131" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U131" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V131" s="36" t="s">
         <v>400</v>
@@ -28332,7 +28340,7 @@
         <v>400</v>
       </c>
       <c r="J132" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K132" s="36" t="s">
         <v>400</v>
@@ -28341,31 +28349,31 @@
         <v>400</v>
       </c>
       <c r="M132" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N132" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O132" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P132" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q132" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R132" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S132" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T132" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S132" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T132" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U132" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V132" s="36" t="s">
         <v>400</v>
@@ -28526,7 +28534,7 @@
         <v>400</v>
       </c>
       <c r="J133" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K133" s="36" t="s">
         <v>400</v>
@@ -28535,31 +28543,31 @@
         <v>400</v>
       </c>
       <c r="M133" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N133" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O133" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P133" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q133" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R133" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S133" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T133" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S133" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T133" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U133" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V133" s="36" t="s">
         <v>400</v>
@@ -28716,7 +28724,7 @@
         <v>400</v>
       </c>
       <c r="J134" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K134" s="36" t="s">
         <v>400</v>
@@ -28725,31 +28733,31 @@
         <v>400</v>
       </c>
       <c r="M134" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N134" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O134" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P134" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q134" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R134" s="36" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="S134" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T134" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U134" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V134" s="36" t="s">
         <v>400</v>
@@ -28883,7 +28891,7 @@
         <v>0</v>
       </c>
       <c r="BO134" s="56" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="2:67" ht="15.95" customHeight="1">
@@ -28906,7 +28914,7 @@
         <v>400</v>
       </c>
       <c r="J135" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K135" s="36" t="s">
         <v>400</v>
@@ -28915,31 +28923,31 @@
         <v>400</v>
       </c>
       <c r="M135" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N135" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O135" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P135" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q135" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R135" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S135" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T135" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S135" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T135" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U135" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V135" s="36" t="s">
         <v>400</v>
@@ -29100,7 +29108,7 @@
         <v>400</v>
       </c>
       <c r="J136" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K136" s="36" t="s">
         <v>400</v>
@@ -29109,31 +29117,31 @@
         <v>400</v>
       </c>
       <c r="M136" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N136" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O136" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P136" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q136" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R136" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S136" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T136" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S136" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T136" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U136" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V136" s="36" t="s">
         <v>400</v>
@@ -29290,7 +29298,7 @@
         <v>400</v>
       </c>
       <c r="J137" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K137" s="36" t="s">
         <v>400</v>
@@ -29299,31 +29307,31 @@
         <v>400</v>
       </c>
       <c r="M137" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N137" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O137" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P137" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q137" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R137" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S137" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T137" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S137" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T137" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U137" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V137" s="36" t="s">
         <v>400</v>
@@ -29484,7 +29492,7 @@
         <v>400</v>
       </c>
       <c r="J138" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K138" s="36" t="s">
         <v>400</v>
@@ -29493,31 +29501,31 @@
         <v>400</v>
       </c>
       <c r="M138" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N138" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O138" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P138" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q138" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R138" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S138" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T138" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S138" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T138" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U138" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V138" s="36" t="s">
         <v>400</v>
@@ -29678,7 +29686,7 @@
         <v>400</v>
       </c>
       <c r="J139" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K139" s="36" t="s">
         <v>400</v>
@@ -29687,31 +29695,31 @@
         <v>400</v>
       </c>
       <c r="M139" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N139" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O139" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P139" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q139" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R139" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S139" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T139" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="U139" s="37" t="s">
         <v>48</v>
-      </c>
-      <c r="S139" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T139" s="37" t="s">
-        <v>400</v>
-      </c>
-      <c r="U139" s="37" t="s">
-        <v>400</v>
       </c>
       <c r="V139" s="36" t="s">
         <v>400</v>
@@ -29872,7 +29880,7 @@
         <v>400</v>
       </c>
       <c r="J140" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K140" s="36" t="s">
         <v>400</v>
@@ -29881,31 +29889,31 @@
         <v>400</v>
       </c>
       <c r="M140" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N140" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O140" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P140" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q140" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R140" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S140" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T140" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S140" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T140" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U140" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V140" s="36" t="s">
         <v>400</v>
@@ -30014,7 +30022,7 @@
         <v>400</v>
       </c>
       <c r="J141" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K141" s="36" t="s">
         <v>400</v>
@@ -30023,31 +30031,31 @@
         <v>400</v>
       </c>
       <c r="M141" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N141" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O141" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P141" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q141" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R141" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S141" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T141" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S141" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T141" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U141" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V141" s="36" t="s">
         <v>400</v>
@@ -30156,7 +30164,7 @@
         <v>400</v>
       </c>
       <c r="J142" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K142" s="36" t="s">
         <v>400</v>
@@ -30165,31 +30173,31 @@
         <v>400</v>
       </c>
       <c r="M142" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N142" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O142" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P142" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q142" s="36" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="R142" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S142" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T142" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S142" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T142" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U142" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V142" s="36" t="s">
         <v>400</v>
@@ -30298,7 +30306,7 @@
         <v>400</v>
       </c>
       <c r="J143" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K143" s="36" t="s">
         <v>400</v>
@@ -30307,31 +30315,31 @@
         <v>400</v>
       </c>
       <c r="M143" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N143" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O143" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P143" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q143" s="36" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R143" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S143" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T143" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S143" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T143" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U143" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V143" s="36" t="s">
         <v>400</v>
@@ -30440,7 +30448,7 @@
         <v>400</v>
       </c>
       <c r="J144" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K144" s="36" t="s">
         <v>400</v>
@@ -30449,31 +30457,31 @@
         <v>400</v>
       </c>
       <c r="M144" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N144" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O144" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P144" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q144" s="36" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="R144" s="36" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="S144" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T144" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U144" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V144" s="36" t="s">
         <v>400</v>
@@ -30582,7 +30590,7 @@
         <v>400</v>
       </c>
       <c r="J145" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K145" s="36" t="s">
         <v>400</v>
@@ -30591,31 +30599,31 @@
         <v>400</v>
       </c>
       <c r="M145" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N145" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O145" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P145" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q145" s="36" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="R145" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S145" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T145" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S145" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T145" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U145" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V145" s="36" t="s">
         <v>400</v>
@@ -30724,7 +30732,7 @@
         <v>400</v>
       </c>
       <c r="J146" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K146" s="36" t="s">
         <v>400</v>
@@ -30733,31 +30741,31 @@
         <v>400</v>
       </c>
       <c r="M146" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N146" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O146" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P146" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q146" s="36" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="R146" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="S146" s="36" t="s">
+        <v>400</v>
+      </c>
+      <c r="T146" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="S146" s="36" t="s">
-        <v>402</v>
-      </c>
-      <c r="T146" s="37" t="s">
-        <v>400</v>
-      </c>
       <c r="U146" s="37" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="V146" s="36" t="s">
         <v>400</v>
@@ -30866,7 +30874,7 @@
         <v>400</v>
       </c>
       <c r="J147" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K147" s="36" t="s">
         <v>400</v>
@@ -30875,31 +30883,31 @@
         <v>400</v>
       </c>
       <c r="M147" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N147" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O147" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P147" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q147" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R147" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S147" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T147" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="U147" s="37" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="V147" s="36" t="s">
         <v>400</v>
@@ -31008,7 +31016,7 @@
         <v>400</v>
       </c>
       <c r="J148" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K148" s="36" t="s">
         <v>400</v>
@@ -31017,31 +31025,31 @@
         <v>400</v>
       </c>
       <c r="M148" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N148" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O148" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P148" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q148" s="36" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R148" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S148" s="36" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T148" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U148" s="37" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V148" s="36" t="s">
         <v>400</v>

--- a/MergeExcel/考勤/1.xlsx
+++ b/MergeExcel/考勤/1.xlsx
@@ -1733,7 +1733,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1816,6 +1816,28 @@
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="12"/>
       </patternFill>
     </fill>
   </fills>
@@ -2356,7 +2378,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="17" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="183" fontId="2" fillId="6" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2371,10 +2393,10 @@
     <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="0">
@@ -2407,7 +2429,7 @@
     <xf numFmtId="183" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="17" borderId="0" xfId="20" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="2" fillId="0" borderId="1" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
@@ -2416,13 +2438,13 @@
     <xf numFmtId="183" fontId="2" fillId="7" borderId="1" xfId="61" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="7" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="15" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="17" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyFill="1" applyAlignment="1">
